--- a/Expert-Annotated Relevant Sources Dataset/ClimRetrieve_base.xlsx
+++ b/Expert-Annotated Relevant Sources Dataset/ClimRetrieve_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschim\LocalData\ClimRetrieve\ClimRetrieve\Expert-Annotated Relevant Sources Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5DB943-665C-4C8C-8E39-4B03DC303E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A8B46-A4CD-4486-8492-45D2138AB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4732,18 +4732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.40625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="26" width="8.6796875" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>13</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>12</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>13</v>
       </c>
@@ -6694,12 +6694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>1236</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>103</v>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>16</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>15</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>14</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>13</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>11</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>10</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>17</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>6</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>19</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>18</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>4</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>20</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>6</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>7</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>10</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>12</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>13</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>14</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>15</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>16</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>17</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>16</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>17</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>18</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>19</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>26</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>23</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>22</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>15</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>24</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>25</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>7</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>13</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>12</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>10</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>9</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>8</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>21</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>4</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>3</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>14</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>20</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>7</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>21</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>20</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>19</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>18</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>17</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>16</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>22</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>15</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>13</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>12</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>11</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>10</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>9</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>14</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>23</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>25</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>40</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>39</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>38</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>36</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>35</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>34</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>24</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>33</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>31</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>30</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>29</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>28</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>27</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>26</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>32</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>37</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>6</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>11</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>4</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>7</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>9</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>10</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>6</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>15</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>9</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>10</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>11</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>12</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>13</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>14</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>16</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>22</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>18</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>19</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>20</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>21</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>23</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>24</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>17</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>7</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>46</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>106</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>105</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>104</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>103</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>102</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>101</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>100</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>99</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>98</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>97</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>96</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>95</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>94</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>25</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>92</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>91</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>93</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>26</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>28</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>55</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>56</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>57</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>69</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>70</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>71</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>72</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>73</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>74</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>75</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>54</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>76</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>78</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>79</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>80</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>81</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>82</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>83</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>84</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>85</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>86</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>87</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>77</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>27</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>53</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>51</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>29</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>30</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>31</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>32</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>33</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>34</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>35</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>36</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>37</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>38</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>52</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>39</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>41</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>43</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>90</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>47</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>48</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>49</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>50</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>40</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>88</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>89</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>6</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>14</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>13</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>12</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>11</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>10</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>9</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>8</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>15</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>5</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>4</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>3</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>7</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>4</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>12</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>11</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>10</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>8</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>7</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>5</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>13</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>15</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>6</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>14</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>12</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>13</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>11</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>8</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>6</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>5</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>4</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>7</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>9</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>10</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>3</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>10</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>17</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>16</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>14</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>13</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>12</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>11</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>9</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>4</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>7</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>6</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>5</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>18</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>3</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>8</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>19</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>27</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>21</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>46</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>45</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>43</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>42</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>20</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>40</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>39</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>38</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>37</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>36</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>35</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>41</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>33</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>34</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>22</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>23</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>24</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>25</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>15</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>28</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>29</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>30</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>31</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>32</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>26</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>12</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>11</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>10</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>9</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>8</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>7</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>3</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>4</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>1</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>13</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>6</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>4</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>3</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>11</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>10</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>9</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>8</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>7</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>6</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>5</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>0</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>1</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>12</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>17</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>18</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>19</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>20</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>25</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>22</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>23</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>24</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>16</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>26</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>21</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>15</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>10</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>13</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>14</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>3</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>4</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>5</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>2</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>7</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>8</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>9</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>11</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>12</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>6</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>12</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>18</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>17</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>16</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>15</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>14</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>13</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>11</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>19</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>9</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>8</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>7</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>6</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>5</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>4</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>3</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>2</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>10</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>10</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>9</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>7</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>6</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>8</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>4</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>0</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>3</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>2</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>1</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>5</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>17</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>18</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>19</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>20</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>21</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>23</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>24</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>25</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>26</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>27</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>16</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>22</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>15</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>12</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>13</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>14</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>2</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>3</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>4</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>5</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>7</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>8</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>9</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>10</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>11</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>6</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>14</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>13</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>12</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>11</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>10</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>9</v>
       </c>
@@ -21273,7 +21273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>6</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>7</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>5</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>4</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>3</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>1</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>8</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>2</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>12</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>3</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>4</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>5</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>6</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>7</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>8</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>9</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>10</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>2</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>11</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>14</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>13</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>11</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>1</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>2</v>
       </c>
@@ -22250,7 +22250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>3</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>4</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>5</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>6</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>10</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>7</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="509" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>8</v>
       </c>
@@ -22501,7 +22501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="510" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>12</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>9</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>4</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>2</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>1</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>7</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>5</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>6</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>3</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>8</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>12</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>10</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>11</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>13</v>
       </c>
@@ -23017,7 +23017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>14</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>9</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>2</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>3</v>
       </c>
@@ -23157,7 +23157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>1</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>5</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="531" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>6</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>7</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>8</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>9</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>11</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>12</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>13</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>14</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>15</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>16</v>
       </c>
@@ -23577,7 +23577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>17</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>18</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>10</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>4</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>1</v>
       </c>
@@ -23816,7 +23816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>3</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>4</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>5</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>6</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>7</v>
       </c>
@@ -23994,7 +23994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>8</v>
       </c>
@@ -24032,7 +24032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>9</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>10</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>11</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>12</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>13</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>14</v>
       </c>
@@ -24251,7 +24251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>15</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>16</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>17</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>0</v>
       </c>
@@ -24417,7 +24417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>1</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>2</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>3</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>4</v>
       </c>
@@ -24560,7 +24560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>5</v>
       </c>
@@ -24598,7 +24598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>6</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>7</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>8</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>9</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>10</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>15</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>16</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>5</v>
       </c>
@@ -24881,7 +24881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>1</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>2</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="580" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>3</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>4</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>12</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>6</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>7</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>0</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>8</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>10</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>11</v>
       </c>
@@ -25266,7 +25266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>12</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>13</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>14</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>18</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="593" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>17</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="594" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>9</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="595" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="596" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>1</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="597" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>3</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="598" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>4</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="599" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>5</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>6</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="601" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>7</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="602" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>8</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="603" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>9</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="604" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>10</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="605" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>2</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="606" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>11</v>
       </c>
@@ -25893,7 +25893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="607" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>4</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="608" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>5</v>
       </c>
@@ -25963,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="609" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>13</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="610" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>14</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="611" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>15</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="612" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>7</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="613" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>10</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="614" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>9</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="615" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>8</v>
       </c>
@@ -26199,7 +26199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="616" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>6</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="617" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>16</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="618" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>3</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="619" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>11</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="620" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>1</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="621" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -26409,7 +26409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="622" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>12</v>
       </c>
@@ -26444,7 +26444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="623" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>2</v>
       </c>
@@ -26479,7 +26479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="624" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>0</v>
       </c>
@@ -26514,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="625" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>1</v>
       </c>
@@ -26549,7 +26549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="626" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>2</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="627" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>3</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="628" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>4</v>
       </c>
@@ -26654,7 +26654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="629" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>5</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="630" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>6</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="631" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>7</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="632" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>8</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="633" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>12</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="634" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>1</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="635" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>9</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="636" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -26916,7 +26916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="637" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>20</v>
       </c>
@@ -26939,7 +26939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="638" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>19</v>
       </c>
@@ -26974,7 +26974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="639" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>18</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="640" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>17</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>16</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>15</v>
       </c>
@@ -27099,7 +27099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>14</v>
       </c>
@@ -27134,7 +27134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>13</v>
       </c>
@@ -27169,7 +27169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>10</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>10</v>
       </c>
@@ -27239,7 +27239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>9</v>
       </c>
@@ -27274,7 +27274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>8</v>
       </c>
@@ -27309,7 +27309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>7</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>6</v>
       </c>
@@ -27379,7 +27379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>5</v>
       </c>
@@ -27414,7 +27414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>4</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>2</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>11</v>
       </c>
@@ -27519,7 +27519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>3</v>
       </c>
@@ -27554,7 +27554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>17</v>
       </c>
@@ -27592,7 +27592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="657" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>18</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="658" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>19</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="659" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>20</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="660" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>24</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="661" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>22</v>
       </c>
@@ -27770,7 +27770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="662" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>23</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="663" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>16</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="664" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>25</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="665" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>26</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="666" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>21</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="667" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>15</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="668" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>11</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="669" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>13</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="670" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>12</v>
       </c>
@@ -28085,7 +28085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="671" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>10</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="672" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>9</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="673" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>8</v>
       </c>
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="674" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>7</v>
       </c>
@@ -28225,7 +28225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="675" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>6</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="676" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>4</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="677" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>3</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="678" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>2</v>
       </c>
@@ -28365,7 +28365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="679" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>1</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="680" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="681" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>14</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="682" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>5</v>
       </c>
@@ -28493,264 +28493,264 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="684" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="685" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="686" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="687" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="688" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="683" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
